--- a/docs/pages/tools/material_table_maker/excel/b_鉱石・資材.xlsx
+++ b/docs/pages/tools/material_table_maker/excel/b_鉱石・資材.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\material_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217A39DA-0941-4520-BD62-47592D3FE48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439CD29B-C34A-42A3-9A28-775E5660B2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>名称</t>
   </si>
@@ -165,15 +165,9 @@
     <t>蒼いブルーカルセドニー</t>
   </si>
   <si>
-    <t>エチェライト</t>
-  </si>
-  <si>
     <t>古代都市SH</t>
   </si>
   <si>
-    <t>緑のエチェライト</t>
-  </si>
-  <si>
     <t>エクロジャイト</t>
   </si>
   <si>
@@ -216,82 +210,211 @@
     <t>★15</t>
   </si>
   <si>
-    <t>白い岩石</t>
-  </si>
-  <si>
-    <t>樹木状の鉱物</t>
-  </si>
-  <si>
-    <t>ラコニア金属</t>
-  </si>
-  <si>
-    <t>赤い樹枝</t>
-  </si>
-  <si>
-    <t>緑の結晶石</t>
-  </si>
-  <si>
-    <t>ウッドオパール</t>
-  </si>
-  <si>
-    <t>赤く広がる花状結晶</t>
-  </si>
-  <si>
-    <t>青い鉱石</t>
-  </si>
-  <si>
-    <t>凍った葉</t>
-  </si>
-  <si>
-    <t>天然樹木</t>
-  </si>
-  <si>
-    <t>オベリスクの破片</t>
-  </si>
-  <si>
-    <t>多積層の銅板</t>
-  </si>
-  <si>
-    <t>成長する金属外殼</t>
-  </si>
-  <si>
-    <t>ラピリストーン</t>
-  </si>
-  <si>
-    <t>透き通る珪化木</t>
-  </si>
-  <si>
-    <t>ペロブスカイト石</t>
-  </si>
-  <si>
-    <t>冷たく燃える金属結晶</t>
-  </si>
-  <si>
-    <t>朽ちない黒い鉄柱</t>
-  </si>
-  <si>
-    <t>大尖塔のワイヤー</t>
-  </si>
-  <si>
-    <t>パイロープ結晶体</t>
-  </si>
-  <si>
-    <t>鈍く光るコランダム塊</t>
-  </si>
-  <si>
-    <t>熱を蓄える斜方輝石</t>
-  </si>
-  <si>
-    <t>苔むしたセラミックス</t>
-  </si>
-  <si>
-    <t>瞬くクリソベリル</t>
-  </si>
-  <si>
-    <t>脈打つミグマタイト</t>
-  </si>
-  <si>
-    <t>SH Lv126～</t>
+    <t>白い岩石?</t>
+  </si>
+  <si>
+    <t>樹木状の鉱物?</t>
+  </si>
+  <si>
+    <t>ラコニア金属?</t>
+  </si>
+  <si>
+    <t>赤い樹枝?</t>
+  </si>
+  <si>
+    <t>緑の結晶石?</t>
+  </si>
+  <si>
+    <t>ウッドオパール?</t>
+  </si>
+  <si>
+    <t>赤く広がる花状結晶?</t>
+  </si>
+  <si>
+    <t>青い鉱石?</t>
+  </si>
+  <si>
+    <t>凍った葉?</t>
+  </si>
+  <si>
+    <t>天然樹木?</t>
+  </si>
+  <si>
+    <t>オベリスクの破片?</t>
+  </si>
+  <si>
+    <t>多積層の銅板?</t>
+  </si>
+  <si>
+    <t>成長する金属外殼?</t>
+  </si>
+  <si>
+    <t>ラピリストーン?</t>
+  </si>
+  <si>
+    <t>透き通る珪化木?</t>
+  </si>
+  <si>
+    <t>ペロブスカイト石?</t>
+  </si>
+  <si>
+    <t>冷たく燃える金属結晶?</t>
+  </si>
+  <si>
+    <t>朽ちない黒い鉄柱?</t>
+  </si>
+  <si>
+    <t>大尖塔のワイヤー?</t>
+  </si>
+  <si>
+    <t>パイロープ結晶体?</t>
+  </si>
+  <si>
+    <t>鈍く光るコランダム塊?</t>
+  </si>
+  <si>
+    <t>熱を蓄える斜方輝石?</t>
+  </si>
+  <si>
+    <t>苔むしたセラミックス?</t>
+  </si>
+  <si>
+    <t>瞬くクリソベリル?</t>
+  </si>
+  <si>
+    <t>脈打つミグマタイト?</t>
+  </si>
+  <si>
+    <t>エラチェライト</t>
+  </si>
+  <si>
+    <t>緑のエラチェライト</t>
+  </si>
+  <si>
+    <t>SH Lv126?～</t>
+  </si>
+  <si>
+    <t>XH各地</t>
+  </si>
+  <si>
+    <t>アメシスト</t>
+  </si>
+  <si>
+    <t>★13</t>
+  </si>
+  <si>
+    <t>鋼の荒野XH</t>
+  </si>
+  <si>
+    <t>陽炎のアメシスト</t>
+  </si>
+  <si>
+    <t>ルビー</t>
+  </si>
+  <si>
+    <t>★14</t>
+  </si>
+  <si>
+    <t>鋼の荒野XH Lv180～？</t>
+  </si>
+  <si>
+    <t>真紅のルビー</t>
+  </si>
+  <si>
+    <t>トパーズ</t>
+  </si>
+  <si>
+    <t>グラン水源XH</t>
+  </si>
+  <si>
+    <t>迅雷のトパーズ</t>
+  </si>
+  <si>
+    <t>ジルコン</t>
+  </si>
+  <si>
+    <t>グラン水源XH Lv180～？</t>
+  </si>
+  <si>
+    <t>黄昏のジルコン</t>
+  </si>
+  <si>
+    <t>アクアマリン</t>
+  </si>
+  <si>
+    <t>炎の高地XH</t>
+  </si>
+  <si>
+    <t>蒼穹のアクアマリン</t>
+  </si>
+  <si>
+    <t>サファイア</t>
+  </si>
+  <si>
+    <t>炎の高地XH Lv180～？</t>
+  </si>
+  <si>
+    <t>群青のサファイア</t>
+  </si>
+  <si>
+    <t>マラカイト</t>
+  </si>
+  <si>
+    <t>古代都市XH</t>
+  </si>
+  <si>
+    <t>悠遠のマラカイト</t>
+  </si>
+  <si>
+    <t>ダイヤモンド</t>
+  </si>
+  <si>
+    <t>大尖塔XH Lv180～？</t>
+  </si>
+  <si>
+    <t>光輝のダイヤモンド</t>
+  </si>
+  <si>
+    <t>古代都市XH Lv180～？</t>
+  </si>
+  <si>
+    <t>ムーンストーン</t>
+  </si>
+  <si>
+    <t>大尖塔XH</t>
+  </si>
+  <si>
+    <t>純白のムーンストーン</t>
+  </si>
+  <si>
+    <t>エメラルド</t>
+  </si>
+  <si>
+    <t>翠緑のエメラルド</t>
+  </si>
+  <si>
+    <t>オニキス</t>
+  </si>
+  <si>
+    <t>ノヴァ内部XH</t>
+  </si>
+  <si>
+    <t>深淵のオニキス</t>
+  </si>
+  <si>
+    <t>オブシディアン</t>
+  </si>
+  <si>
+    <t>ノヴァ内部XH Lv180～？</t>
+  </si>
+  <si>
+    <t>漆黒のオブシディアン</t>
+  </si>
+  <si>
+    <t>ノヴァファクター</t>
+  </si>
+  <si>
+    <t>Lv200以上の大型エネミーからドロップ？</t>
   </si>
 </sst>
 </file>
@@ -616,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -643,7 +766,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -654,7 +777,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -665,7 +788,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -684,7 +807,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -698,7 +821,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -709,7 +832,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -720,7 +843,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -731,7 +854,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -742,7 +865,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -761,7 +884,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -772,7 +895,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -780,7 +903,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -791,7 +914,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -802,7 +925,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -813,7 +936,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -824,7 +947,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -840,7 +963,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -854,7 +977,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -865,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -876,7 +999,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -884,7 +1007,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -892,7 +1015,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -906,7 +1029,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -914,7 +1037,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -925,7 +1048,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1068,145 +1191,425 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
